--- a/uploads/Dabur_Vatika_eco_report.xlsx
+++ b/uploads/Dabur_Vatika_eco_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,54 +463,135 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ochieng Charles</t>
+          <t>Jedidah Kemunto</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-19.00</t>
+          <t>-15.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Ochieng Charles</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-19.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lenah Cheloti</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-12.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Moses  Ngugi</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-30.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>KD Totals</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-19.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5.00%</t>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-76.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.25%</t>
         </is>
       </c>
     </row>
